--- a/GATEWAY/A1#111DEDALUS0000/DEDALUS SPA/APEIRON/3.0.0/report-checklist.xlsx
+++ b/GATEWAY/A1#111DEDALUS0000/DEDALUS SPA/APEIRON/3.0.0/report-checklist.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26227"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="J:\DANIELE\FSE2.0\accreditamento\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="J:\DANIELE\FSE2.0\accreditamento\VPS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{685C3858-D9DF-4E58-A4B8-140365FE7E00}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A8107E92-4D42-4684-AC61-9FF619B5341C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Istruzioni Compilazione" sheetId="5" r:id="rId1"/>
@@ -805,15 +805,6 @@
 mancana tutta la sezione entry</t>
   </si>
   <si>
-    <t>57e6ff24aa7a6898</t>
-  </si>
-  <si>
-    <t>2.16.840.1.113883.2.9.2.10212.4.4.1.c468f6c52940b024ad4515d4f656f275fcec1e7e8873597dba7631b235f53649.09fa1d9579^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  Tues18 Apr 202314:22:22 GMT</t>
-  </si>
-  <si>
     <t>Tues,18 Apr 2023 14:25:25 GMT</t>
   </si>
   <si>
@@ -839,6 +830,15 @@
   </si>
   <si>
     <t>2.16.840.1.113883.2.9.2.10212.4.4.1.8c7b4bc2db9581accdc6f4a792b418d9334ecebc33a8038abe150044b1cf46ea.c9d67513f7^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+  </si>
+  <si>
+    <t>e913c496f4a8eaf3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  Wed,26 Apr 2023 08:28:32 GMT</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.2.9.2.10212.4.4.1.c468f6c52940b024ad4515d4f656f275fcec1e7e8873597dba7631b235f53649.09a289d6ed^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
   </si>
 </sst>
 </file>
@@ -2979,10 +2979,10 @@
   <dimension ref="A1:T886"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="72" zoomScaleNormal="72" workbookViewId="0">
-      <pane xSplit="1" ySplit="9" topLeftCell="E12" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="9" topLeftCell="B10" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A10" sqref="A10"/>
-      <selection pane="bottomRight" activeCell="I13" sqref="I13"/>
+      <selection pane="bottomRight" activeCell="J10" sqref="J10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -3260,16 +3260,16 @@
         <v>33</v>
       </c>
       <c r="F10" s="37">
-        <v>45034</v>
+        <v>45042</v>
       </c>
       <c r="G10" s="48" t="s">
-        <v>167</v>
+        <v>175</v>
       </c>
       <c r="H10" s="50" t="s">
-        <v>165</v>
+        <v>174</v>
       </c>
       <c r="I10" s="38" t="s">
-        <v>166</v>
+        <v>176</v>
       </c>
       <c r="J10" s="39" t="s">
         <v>40</v>
@@ -3309,13 +3309,13 @@
         <v>45034</v>
       </c>
       <c r="G11" s="48" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="H11" s="38" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="I11" s="38" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="J11" s="39" t="s">
         <v>114</v>
@@ -3355,13 +3355,13 @@
         <v>45034</v>
       </c>
       <c r="G12" s="48" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="H12" s="38" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="I12" s="38" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="J12" s="39" t="s">
         <v>114</v>
@@ -3401,13 +3401,13 @@
         <v>45034</v>
       </c>
       <c r="G13" s="48" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="H13" s="38" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="I13" s="38" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="J13" s="39" t="s">
         <v>114</v>
